--- a/другое/ФИПИ2025 Вариант 3/Tasks-19-21.xlsx
+++ b/другое/ФИПИ2025 Вариант 3/Tasks-19-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aziz0\Documents\Main\ege\другое\ФИПИ2025 Вариант 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B12B5CFA-CF0B-4C15-A9BD-8F63D0829F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC486A4F-35D1-4ACD-AFC6-59808B16A4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E310B128-1D4C-49D0-B33C-1A936D78A752}"/>
   </bookViews>
@@ -190,7 +190,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -202,7 +202,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0_ ;[Red]\-0\ "/>
+      <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -218,7 +218,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0_ ;[Red]\-0\ "/>
+      <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -234,31 +234,16 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0_ ;[Red]\-0\ "/>
+      <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0_ ;[Red]\-0\ "/>
+      <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0_ ;[Red]\-0\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0_ ;[Red]\-0\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0_ ;[Red]\-0\ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1614,7 +1599,7 @@
   <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,13 +1621,13 @@
         <v>4</v>
       </c>
       <c r="H1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="12">
         <v>89</v>
       </c>
       <c r="K1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L1" s="12">
         <v>98</v>
